--- a/AAII_Financials/Quarterly/SFUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFUN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>SFUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>170400</v>
+      </c>
+      <c r="F8" s="3">
         <v>67600</v>
       </c>
-      <c r="E8" s="3">
-        <v>67600</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35000</v>
       </c>
-      <c r="G8" s="3">
-        <v>82200</v>
-      </c>
       <c r="H8" s="3">
-        <v>83600</v>
+        <v>67300</v>
       </c>
       <c r="I8" s="3">
+        <v>172800</v>
+      </c>
+      <c r="J8" s="3">
         <v>74400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>62800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>112200</v>
       </c>
       <c r="L8" s="3">
         <v>112200</v>
       </c>
       <c r="M8" s="3">
+        <v>112200</v>
+      </c>
+      <c r="N8" s="3">
         <v>110100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>109800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>174700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>250100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5700</v>
+        <v>4100</v>
       </c>
       <c r="E9" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F9" s="3">
         <v>8300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8400</v>
       </c>
-      <c r="G9" s="3">
-        <v>12400</v>
-      </c>
       <c r="H9" s="3">
-        <v>17800</v>
+        <v>7000</v>
       </c>
       <c r="I9" s="3">
+        <v>39400</v>
+      </c>
+      <c r="J9" s="3">
         <v>8100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>60700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>89400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>61900</v>
+        <v>45200</v>
       </c>
       <c r="E10" s="3">
+        <v>148000</v>
+      </c>
+      <c r="F10" s="3">
         <v>59300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26600</v>
       </c>
-      <c r="G10" s="3">
-        <v>69800</v>
-      </c>
       <c r="H10" s="3">
-        <v>65800</v>
+        <v>60300</v>
       </c>
       <c r="I10" s="3">
+        <v>133400</v>
+      </c>
+      <c r="J10" s="3">
         <v>66300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>82500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>76800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>49100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>85300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,14 +1002,14 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -998,23 +1017,26 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40800</v>
+        <v>70300</v>
       </c>
       <c r="E17" s="3">
+        <v>125400</v>
+      </c>
+      <c r="F17" s="3">
         <v>38500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>46800</v>
       </c>
-      <c r="G17" s="3">
-        <v>70400</v>
-      </c>
       <c r="H17" s="3">
-        <v>68300</v>
+        <v>46200</v>
       </c>
       <c r="I17" s="3">
+        <v>184000</v>
+      </c>
+      <c r="J17" s="3">
         <v>57700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>66700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>93800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>116500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>185800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>249900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26800</v>
+        <v>-21000</v>
       </c>
       <c r="E18" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F18" s="3">
         <v>29100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11800</v>
       </c>
-      <c r="G18" s="3">
-        <v>11800</v>
-      </c>
       <c r="H18" s="3">
-        <v>15300</v>
+        <v>21100</v>
       </c>
       <c r="I18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-21000</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-45900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-28300</v>
       </c>
-      <c r="H20" s="3">
-        <v>-4100</v>
-      </c>
       <c r="I20" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-76000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-39600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,140 +1302,152 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5800</v>
-      </c>
       <c r="I22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>600</v>
+        <v>-29600</v>
       </c>
       <c r="E23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-22600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-20800</v>
-      </c>
       <c r="H23" s="3">
-        <v>5400</v>
+        <v>-12500</v>
       </c>
       <c r="I23" s="3">
+        <v>-147900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-64900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-49100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>-3400</v>
       </c>
       <c r="E24" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-20600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11100</v>
       </c>
-      <c r="G24" s="3">
-        <v>24900</v>
-      </c>
       <c r="H24" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>4800</v>
-      </c>
-      <c r="O24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>700</v>
+        <v>-26200</v>
       </c>
       <c r="E26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-45700</v>
-      </c>
       <c r="H26" s="3">
-        <v>2300</v>
+        <v>-36200</v>
       </c>
       <c r="I26" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-26600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-44900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>700</v>
+        <v>-26200</v>
       </c>
       <c r="E27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-45700</v>
-      </c>
       <c r="H27" s="3">
-        <v>2300</v>
+        <v>-36200</v>
       </c>
       <c r="I27" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-26600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-44900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1583,25 +1643,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F29" s="3">
         <v>6100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>8300</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>19700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>21000</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F32" s="3">
         <v>45900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>28300</v>
       </c>
-      <c r="H32" s="3">
-        <v>4100</v>
-      </c>
       <c r="I32" s="3">
+        <v>120700</v>
+      </c>
+      <c r="J32" s="3">
         <v>76000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>39600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>700</v>
+        <v>-26200</v>
       </c>
       <c r="E33" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F33" s="3">
         <v>4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-45700</v>
-      </c>
       <c r="H33" s="3">
-        <v>2300</v>
+        <v>-29400</v>
       </c>
       <c r="I33" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-26600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-44900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>700</v>
+        <v>-26200</v>
       </c>
       <c r="E35" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F35" s="3">
         <v>4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-45700</v>
-      </c>
       <c r="H35" s="3">
-        <v>2300</v>
+        <v>-29400</v>
       </c>
       <c r="I35" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-26600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-44900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2052,150 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E41" s="3">
         <v>214400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>232100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>198900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>195100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>151200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>183100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>166500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>228300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>153200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>235600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>248600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>336500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>866900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E42" s="3">
         <v>48900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>55600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>61700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>96900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>88800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>49500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E43" s="3">
         <v>122200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>141000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>168000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>184000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>225600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>232300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>220900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>202800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>183100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>147100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>146500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>156300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,184 +2238,199 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>251300</v>
+      </c>
+      <c r="E45" s="3">
         <v>241200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>274300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>279700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>273500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>245700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>251500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>266700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>255700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>339100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>250400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>252500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>250900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>688500</v>
+      </c>
+      <c r="E46" s="3">
         <v>626800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>665000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>668300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>668800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>662700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>706900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>709700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>748400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>775600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>730000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>736400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>793200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1210600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>341900</v>
+      </c>
+      <c r="E47" s="3">
         <v>334700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>360600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>417300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>380400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>406800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>358900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>524900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>544400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>631800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>424200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>295000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>489400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>695500</v>
+      </c>
+      <c r="E48" s="3">
         <v>693600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>716400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>735200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>728300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>737400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>767200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>687600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>622100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>553500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>550000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>542800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>319900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>330200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E52" s="3">
         <v>84500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>51100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>46900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>81900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>86500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1814800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1739600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1793100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1873800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1824400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1885400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1914900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2008700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2000300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1969900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1714500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1583700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1614800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2096100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,28 +2748,29 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -2657,234 +2787,252 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>369800</v>
+      </c>
+      <c r="E58" s="3">
         <v>262000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>293100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>297000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>297800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>280400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>278800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>284900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>242700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>277500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>278400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>201000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>212700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>265200</v>
+      </c>
+      <c r="E59" s="3">
         <v>256700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>264900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>305200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>303100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>323200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>331500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>341300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>339100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>475300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>444400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>461700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>483000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>644200</v>
+      </c>
+      <c r="E60" s="3">
         <v>519000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>558100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>602200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>603900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>610300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>626300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>581800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>752800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>722900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>662700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>695700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1023900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>351500</v>
+      </c>
+      <c r="E61" s="3">
         <v>399800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>373000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>376300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>377700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>417100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>362900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>364400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>405500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>372500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>311800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>370800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>360500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>371300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E62" s="3">
         <v>209700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>231100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>268000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>250700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>222300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>270200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>273400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>272700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>124500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>98000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1219400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1129200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1163000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1247100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1229900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1244000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1244100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1264800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1260700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1250500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1133400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1104700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1127700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E72" s="3">
         <v>297900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>308400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>290100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>276700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>320500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>318300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>345100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>225600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>205000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>189800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>191900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>203900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>211200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>595400</v>
+      </c>
+      <c r="E76" s="3">
         <v>610400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>630100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>626700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>594500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>641400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>670800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>743900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>739600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>719400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>581100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>479000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>487100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>628100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>700</v>
+        <v>-26200</v>
       </c>
       <c r="E81" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F81" s="3">
         <v>4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-45700</v>
-      </c>
       <c r="H81" s="3">
-        <v>2300</v>
+        <v>-29400</v>
       </c>
       <c r="I81" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-26600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-44900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>SFUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49300</v>
+        <v>66800</v>
       </c>
       <c r="E8" s="3">
-        <v>170400</v>
+        <v>38300</v>
       </c>
       <c r="F8" s="3">
+        <v>49600</v>
+      </c>
+      <c r="G8" s="3">
         <v>67600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>67600</v>
+      </c>
+      <c r="I8" s="3">
         <v>35000</v>
       </c>
-      <c r="H8" s="3">
-        <v>67300</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K8" s="3">
         <v>172800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>74400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>62800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>112200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>112200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>110100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>109800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>174700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>250100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="E9" s="3">
-        <v>22400</v>
+        <v>5400</v>
       </c>
       <c r="F9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H9" s="3">
         <v>8300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8400</v>
       </c>
-      <c r="H9" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>39400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>20200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>29700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>35400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>48700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>60700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>89400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>45200</v>
+        <v>63200</v>
       </c>
       <c r="E10" s="3">
-        <v>148000</v>
+        <v>32900</v>
       </c>
       <c r="F10" s="3">
+        <v>43700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>61900</v>
+      </c>
+      <c r="H10" s="3">
         <v>59300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>26600</v>
       </c>
-      <c r="H10" s="3">
-        <v>60300</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K10" s="3">
         <v>133400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>66300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>42600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>82500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>76800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>61400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>49100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>85300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -999,14 +1039,14 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1014,29 +1054,35 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>70300</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>125400</v>
+        <v>35600</v>
       </c>
       <c r="F17" s="3">
+        <v>68700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>40800</v>
+      </c>
+      <c r="H17" s="3">
         <v>38500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>46800</v>
       </c>
-      <c r="H17" s="3">
-        <v>46200</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K17" s="3">
         <v>184000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>57700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>66700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>76400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>93800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>117300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>116500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>185800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>249900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-21000</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>45000</v>
+        <v>2700</v>
       </c>
       <c r="F18" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>26800</v>
+      </c>
+      <c r="H18" s="3">
         <v>29100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-11800</v>
       </c>
-      <c r="H18" s="3">
-        <v>21100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>35800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>18400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,55 +1277,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>-32700</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-45900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>34000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-120700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-76000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-39600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>8900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>11300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,149 +1379,173 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9000</v>
+        <v>3800</v>
       </c>
       <c r="E22" s="3">
-        <v>16900</v>
+        <v>8500</v>
       </c>
       <c r="F22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K22" s="3">
         <v>16000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29600</v>
+        <v>4800</v>
       </c>
       <c r="E23" s="3">
-        <v>-4600</v>
+        <v>-41600</v>
       </c>
       <c r="F23" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-22600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>16200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-147900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-64900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-49100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>33600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>19400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3400</v>
+        <v>-16700</v>
       </c>
       <c r="E24" s="3">
-        <v>-9100</v>
+        <v>-2500</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-20600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>11100</v>
       </c>
-      <c r="H24" s="3">
-        <v>23700</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-42700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-38300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-26200</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>4600</v>
+        <v>-39100</v>
       </c>
       <c r="F26" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-105200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-26600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-44900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>20600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>15200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-26200</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>4600</v>
+        <v>-39100</v>
       </c>
       <c r="F27" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-105200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-26600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-44900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>20600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>15200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-12000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,40 +1750,46 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>13900</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>6100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>8300</v>
       </c>
-      <c r="H29" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K29" s="3">
         <v>19700</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>32700</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H32" s="3">
         <v>45900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-34000</v>
       </c>
-      <c r="H32" s="3">
-        <v>28300</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K32" s="3">
         <v>120700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>76000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>39600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-8900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-26200</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>18500</v>
+        <v>-39100</v>
       </c>
       <c r="F33" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>700</v>
+      </c>
+      <c r="H33" s="3">
         <v>4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>13400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-85500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-26600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-44900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>20600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>15200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-26200</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>18500</v>
+        <v>-39100</v>
       </c>
       <c r="F35" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>700</v>
+      </c>
+      <c r="H35" s="3">
         <v>4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>13400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-85500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-26600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-44900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>20600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>15200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,149 +2225,169 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>181700</v>
+        <v>85500</v>
       </c>
       <c r="E41" s="3">
+        <v>107000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>105300</v>
+      </c>
+      <c r="G41" s="3">
         <v>214400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>232100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>198900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>195100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>151200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>183100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>166500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>228300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>153200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>235600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>248600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>336500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>866900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>119000</v>
+        <v>148400</v>
       </c>
       <c r="E42" s="3">
+        <v>181300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>194900</v>
+      </c>
+      <c r="G42" s="3">
         <v>48900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>17600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>21700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>16200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>40200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>40100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>55600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>61700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>100200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>96900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>88800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>49500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>136600</v>
+        <v>152300</v>
       </c>
       <c r="E43" s="3">
+        <v>141200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>135900</v>
+      </c>
+      <c r="G43" s="3">
         <v>122200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>141000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>168000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>184000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>225600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>232300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>220900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>202800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>183100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>147100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>146500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>156300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,196 +2433,226 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>251300</v>
+        <v>250300</v>
       </c>
       <c r="E45" s="3">
+        <v>253200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>250600</v>
+      </c>
+      <c r="G45" s="3">
         <v>241200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>274300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>279700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>273500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>245700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>251500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>266700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>255700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>339100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>250400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>252500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>250900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>688500</v>
+        <v>636400</v>
       </c>
       <c r="E46" s="3">
+        <v>682700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>686700</v>
+      </c>
+      <c r="G46" s="3">
         <v>626800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>665000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>668300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>668800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>662700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>706900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>709700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>748400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>775600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>730000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>736400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>793200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1210600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>341900</v>
+        <v>325900</v>
       </c>
       <c r="E47" s="3">
+        <v>296000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>342600</v>
+      </c>
+      <c r="G47" s="3">
         <v>334700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>360600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>417300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>380400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>406800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>358900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>524900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>544400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>631800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>424200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>295000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>489400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>676600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>630000</v>
+      </c>
+      <c r="F48" s="3">
         <v>695500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>693600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>716400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>735200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>728300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>737400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>767200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>687600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>622100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>553500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>550000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>542800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>319900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>330200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88800</v>
+        <v>91600</v>
       </c>
       <c r="E52" s="3">
+        <v>143300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>88200</v>
+      </c>
+      <c r="G52" s="3">
         <v>84500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>51100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>53100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>46900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>78500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>81900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>86500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>85300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>10300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>12300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1814800</v>
+        <v>1730400</v>
       </c>
       <c r="E54" s="3">
+        <v>1752000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1812900</v>
+      </c>
+      <c r="G54" s="3">
         <v>1739600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1793100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1873800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1824400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1885400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1914900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2008700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2000300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1969900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1714500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1583700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1614800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2096100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +3009,37 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2790,249 +3052,285 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>369800</v>
+        <v>361200</v>
       </c>
       <c r="E58" s="3">
+        <v>364800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>367400</v>
+      </c>
+      <c r="G58" s="3">
         <v>262000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>293100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>297000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>297800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>280400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>278800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>284900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>242700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>277500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>278400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>201000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>212700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>265200</v>
+        <v>246200</v>
       </c>
       <c r="E59" s="3">
+        <v>264400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>263600</v>
+      </c>
+      <c r="G59" s="3">
         <v>256700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>264900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>305200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>303100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>323200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>331500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>341300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>339100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>475300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>444400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>461700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>483000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>644200</v>
+        <v>617400</v>
       </c>
       <c r="E60" s="3">
+        <v>638400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>640200</v>
+      </c>
+      <c r="G60" s="3">
         <v>519000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>558100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>602200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>603900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>610300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>626300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>581800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>752800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>722900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>662700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>695700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1023900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>351500</v>
+        <v>347000</v>
       </c>
       <c r="E61" s="3">
+        <v>344700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>353100</v>
+      </c>
+      <c r="G61" s="3">
         <v>399800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>373000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>376300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>377700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>417100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>362900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>364400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>405500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>372500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>311800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>370800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>360500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>371300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>223000</v>
+        <v>199300</v>
       </c>
       <c r="E62" s="3">
+        <v>227400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>229200</v>
+      </c>
+      <c r="G62" s="3">
         <v>209700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>231100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>268000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>250700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>222300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>270200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>273400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>272700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>124500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>98000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>70500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>70800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1219400</v>
+        <v>1164400</v>
       </c>
       <c r="E66" s="3">
+        <v>1211200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1223100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1129200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1163000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1247100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1229900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1244000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1244100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1264800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1260700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1250500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1133400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1104700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1127700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>271000</v>
+        <v>250900</v>
       </c>
       <c r="E72" s="3">
+        <v>231300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>270400</v>
+      </c>
+      <c r="G72" s="3">
         <v>297900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>308400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>290100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>276700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>320500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>318300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>345100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>225600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>205000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>189800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>191900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>203900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>211200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>595400</v>
+        <v>566100</v>
       </c>
       <c r="E76" s="3">
+        <v>540800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>589800</v>
+      </c>
+      <c r="G76" s="3">
         <v>610400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>630100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>626700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>594500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>641400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>670800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>743900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>739600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>719400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>581100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>479000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>487100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>628100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-26200</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>18500</v>
+        <v>-39100</v>
       </c>
       <c r="F81" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>700</v>
+      </c>
+      <c r="H81" s="3">
         <v>4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>13400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-85500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-26600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-44900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>20600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>15200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SFUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E8" s="3">
         <v>66800</v>
       </c>
-      <c r="E8" s="3">
-        <v>38300</v>
-      </c>
       <c r="F8" s="3">
+        <v>36100</v>
+      </c>
+      <c r="G8" s="3">
         <v>49600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>67600</v>
       </c>
       <c r="H8" s="3">
         <v>67600</v>
       </c>
       <c r="I8" s="3">
+        <v>67800</v>
+      </c>
+      <c r="J8" s="3">
         <v>35000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>172800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>112200</v>
       </c>
       <c r="O8" s="3">
         <v>112200</v>
       </c>
       <c r="P8" s="3">
+        <v>112200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>110100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>109800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>174700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>250100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>35400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>60700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>89400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E10" s="3">
         <v>63200</v>
       </c>
-      <c r="E10" s="3">
-        <v>32900</v>
-      </c>
       <c r="F10" s="3">
+        <v>30700</v>
+      </c>
+      <c r="G10" s="3">
         <v>43700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61900</v>
       </c>
-      <c r="H10" s="3">
-        <v>59300</v>
-      </c>
       <c r="I10" s="3">
+        <v>59500</v>
+      </c>
+      <c r="J10" s="3">
         <v>26600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>133400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>66300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>82500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>76800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>49100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>85300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>2200</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>39000</v>
       </c>
       <c r="E17" s="3">
+        <v>60500</v>
+      </c>
+      <c r="F17" s="3">
         <v>35600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>68700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40800</v>
       </c>
-      <c r="H17" s="3">
-        <v>38500</v>
-      </c>
       <c r="I17" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J17" s="3">
         <v>46800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>184000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>66700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>93800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>117300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>116500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>185800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>249900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>17700</v>
       </c>
       <c r="E18" s="3">
-        <v>2700</v>
+        <v>6300</v>
       </c>
       <c r="F18" s="3">
+        <v>500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-19100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26800</v>
       </c>
-      <c r="H18" s="3">
-        <v>29100</v>
-      </c>
       <c r="I18" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-11800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>18000</v>
       </c>
       <c r="E20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-35800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-21000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-45900</v>
-      </c>
       <c r="I20" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="J20" s="3">
         <v>34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-29300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-120700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-76000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-39600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,167 +1422,179 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8500</v>
       </c>
       <c r="F22" s="3">
         <v>8500</v>
       </c>
       <c r="G22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H22" s="3">
         <v>5200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E23" s="3">
         <v>4800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-41600</v>
-      </c>
       <c r="F23" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-27200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
-        <v>-22600</v>
-      </c>
       <c r="I23" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="J23" s="3">
         <v>16200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-51900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-147900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-64900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-49100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16700</v>
       </c>
-      <c r="E24" s="3">
-        <v>-2500</v>
-      </c>
       <c r="F24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>-20600</v>
-      </c>
       <c r="I24" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="J24" s="3">
         <v>11100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-42700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-38300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>10900</v>
       </c>
       <c r="E26" s="3">
-        <v>-39100</v>
+        <v>21500</v>
       </c>
       <c r="F26" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-27300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J26" s="3">
         <v>5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-72300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-105200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-44900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>10900</v>
       </c>
       <c r="E27" s="3">
-        <v>-39100</v>
+        <v>21500</v>
       </c>
       <c r="F27" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-27300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J27" s="3">
         <v>5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-72300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-105200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-44900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,43 +1814,46 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1300</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J29" s="3">
         <v>8300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>26500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>19700</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-18000</v>
       </c>
       <c r="E32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>35800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>21000</v>
       </c>
-      <c r="H32" s="3">
-        <v>45900</v>
-      </c>
       <c r="I32" s="3">
+        <v>45700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>29300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>120700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>76000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>39600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>10900</v>
       </c>
       <c r="E33" s="3">
-        <v>-39100</v>
+        <v>21500</v>
       </c>
       <c r="F33" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-28600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
-        <v>4200</v>
-      </c>
       <c r="I33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J33" s="3">
         <v>13400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-85500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-44900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>10900</v>
       </c>
       <c r="E35" s="3">
-        <v>-39100</v>
+        <v>21500</v>
       </c>
       <c r="F35" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-28600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
-        <v>4200</v>
-      </c>
       <c r="I35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J35" s="3">
         <v>13400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-85500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-44900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2313,177 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E41" s="3">
         <v>85500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>214400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>232100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>198900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>195100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>151200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>183100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>166500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>228300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>153200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>235600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>248600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>336500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>866900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E42" s="3">
         <v>148400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>181300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>194900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>48900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>55600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>61700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>100200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>96900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>88800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>49500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E43" s="3">
         <v>152300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>141200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>135900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>122200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>141000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>168000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>184000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>225600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>232300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>220900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>202800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>183100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>147100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>146500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>156300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,220 +2535,235 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>261900</v>
+      </c>
+      <c r="E45" s="3">
         <v>250300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>253200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>250600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>241200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>274300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>279700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>273500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>245700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>251500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>266700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>255700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>339100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>250400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>252500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>250900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>805000</v>
+      </c>
+      <c r="E46" s="3">
         <v>636400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>682700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>686700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>626800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>665000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>668300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>668800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>662700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>706900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>709700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>748400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>775600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>730000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>736400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>793200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1210600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E47" s="3">
         <v>325900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>296000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>342600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>334700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>360600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>417300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>380400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>406800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>358900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>524900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>544400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>631800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>424200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>295000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>489400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>693200</v>
+      </c>
+      <c r="E48" s="3">
         <v>676600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>630000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>695500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>693600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>716400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>735200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>728300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>737400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>767200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>687600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>622100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>553500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>550000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>542800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>319900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>330200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E52" s="3">
         <v>91600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>143300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>84500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>51100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>46900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>81900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1830900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1730400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1752000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1812900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1739600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1793100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1873800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1824400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1885400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1914900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2008700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2000300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1969900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1714500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1583700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1614800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2096100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,37 +3141,38 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>9200</v>
       </c>
       <c r="F57" s="3">
         <v>9200</v>
       </c>
       <c r="G57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
@@ -3058,279 +3189,297 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>406500</v>
+      </c>
+      <c r="E58" s="3">
         <v>361200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>364800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>367400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>262000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>293100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>297000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>297800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>280400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>278800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>284900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>242700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>277500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>278400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>201000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>212700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E59" s="3">
         <v>246200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>264400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>263600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>256700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>264900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>305200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>303100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>323200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>331500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>341300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>339100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>475300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>444400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>461700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>483000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>683500</v>
+      </c>
+      <c r="E60" s="3">
         <v>617400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>638400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>640200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>519000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>558100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>602200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>603900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>610300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>626300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>581800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>752800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>722900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>662700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>695700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1023900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>318800</v>
+      </c>
+      <c r="E61" s="3">
         <v>347000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>344700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>353100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>399800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>373000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>376300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>377700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>417100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>362900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>364400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>405500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>372500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>311800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>370800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>360500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>371300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E62" s="3">
         <v>199300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>227400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>229200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>209700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>231100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>268000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>250700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>222300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>270200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>273400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>272700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>124500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>98000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>70500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1213000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1164400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1211200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1223100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1129200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1163000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1247100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1229900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1244000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1244100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1264800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1260700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1250500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1133400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1104700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1127700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>257900</v>
+      </c>
+      <c r="E72" s="3">
         <v>250900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>231300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>270400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>297900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>308400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>290100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>276700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>320500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>318300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>345100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>225600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>205000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>189800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>191900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>203900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>211200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>617900</v>
+      </c>
+      <c r="E76" s="3">
         <v>566100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>540800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>589800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>610400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>630100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>626700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>594500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>641400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>670800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>743900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>739600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>719400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>581100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>479000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>487100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>628100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>10900</v>
       </c>
       <c r="E81" s="3">
-        <v>-39100</v>
+        <v>21500</v>
       </c>
       <c r="F81" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-28600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
-        <v>4200</v>
-      </c>
       <c r="I81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J81" s="3">
         <v>13400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-85500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-44900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SFUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SFUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>SFUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56700</v>
+        <v>56500</v>
       </c>
       <c r="E8" s="3">
+        <v>159600</v>
+      </c>
+      <c r="F8" s="3">
         <v>66800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>172800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>62800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>112200</v>
       </c>
       <c r="P8" s="3">
         <v>112200</v>
       </c>
       <c r="Q8" s="3">
+        <v>112200</v>
+      </c>
+      <c r="R8" s="3">
         <v>110100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>109800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>174700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>250100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5100</v>
+        <v>3500</v>
       </c>
       <c r="E9" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>60700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>89400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>51600</v>
+        <v>53000</v>
       </c>
       <c r="E10" s="3">
+        <v>145500</v>
+      </c>
+      <c r="F10" s="3">
         <v>63200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>43700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>59500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>133400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>66300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>82500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>76800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>49100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>85300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>93100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,35 +1096,38 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>39000</v>
+        <v>50600</v>
       </c>
       <c r="E17" s="3">
+        <v>132900</v>
+      </c>
+      <c r="F17" s="3">
         <v>60500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>68700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>184000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>66700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>76400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>93800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>117300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>116500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>185800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>249900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17700</v>
+        <v>5900</v>
       </c>
       <c r="E18" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F18" s="3">
         <v>6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18000</v>
+        <v>-4100</v>
       </c>
       <c r="E20" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-35800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-21000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-45700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-120700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-76000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-39600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,176 +1461,188 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5500</v>
+        <v>6100</v>
       </c>
       <c r="E22" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F22" s="3">
         <v>3800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8500</v>
       </c>
       <c r="G22" s="3">
         <v>8500</v>
       </c>
       <c r="H22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I22" s="3">
         <v>5200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30200</v>
+        <v>-4300</v>
       </c>
       <c r="E23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F23" s="3">
         <v>4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-51900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-147900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-64900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-49100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>33600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19200</v>
+        <v>-4200</v>
       </c>
       <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-16700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-20100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-42700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-38300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10900</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F26" s="3">
         <v>21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-72300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-105200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-44900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10900</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F27" s="3">
         <v>21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-72300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-105200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-44900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1832,31 +1892,31 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1300</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>6300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>8300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>26500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>19700</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18000</v>
+        <v>4100</v>
       </c>
       <c r="E32" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>35800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>21000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>45700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>120700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>76000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>39600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10900</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F33" s="3">
         <v>21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-85500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-44900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10900</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F35" s="3">
         <v>21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-85500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-44900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,176 +2399,186 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E41" s="3">
         <v>111800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>214400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>232100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>198900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>195100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>151200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>183100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>166500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>228300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>153200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>235600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>248600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>336500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>866900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E42" s="3">
         <v>253100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>148400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>181300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>194900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>48900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>55600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>61700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>100200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>96900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>88800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>49500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>191800</v>
+      </c>
+      <c r="E43" s="3">
         <v>178200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>152300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>141200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>135900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>122200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>141000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>168000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>184000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>225600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>232300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>220900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>202800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>183100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>147100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>146500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>156300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>252800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,232 +2633,247 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>316100</v>
+      </c>
+      <c r="E45" s="3">
         <v>261900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>250300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>253200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>250600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>241200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>274300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>279700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>273500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>245700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>251500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>266700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>255700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>339100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>250400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>252500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>250900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>729500</v>
+      </c>
+      <c r="E46" s="3">
         <v>805000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>636400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>682700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>686700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>626800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>665000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>668300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>668800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>662700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>706900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>709700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>748400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>775600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>730000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>736400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>793200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1210600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E47" s="3">
         <v>246500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>325900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>296000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>342600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>334700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>360600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>417300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>380400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>406800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>358900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>524900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>544400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>631800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>424200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>295000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>489400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>536500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>713600</v>
+      </c>
+      <c r="E48" s="3">
         <v>693200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>676600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>630000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>695500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>693600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>716400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>735200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>728300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>737400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>767200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>687600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>622100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>553500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>550000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>542800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>319900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>330200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E52" s="3">
         <v>86200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>91600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>143300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>88200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>84500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>51100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>81900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1904900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1830900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1730400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1752000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1812900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1739600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1793100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1873800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1824400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1885400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1914900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2008700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1969900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1714500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1583700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1614800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2096100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,40 +3271,41 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E57" s="3">
         <v>12500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>9200</v>
       </c>
       <c r="G57" s="3">
         <v>9200</v>
       </c>
       <c r="H57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
@@ -3192,294 +3322,312 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>334100</v>
+      </c>
+      <c r="E58" s="3">
         <v>406500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>361200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>364800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>367400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>262000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>293100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>297000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>297800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>280400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>278800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>284900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>242700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>277500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>278400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>201000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>212700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>491000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>294800</v>
+      </c>
+      <c r="E59" s="3">
         <v>264500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>246200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>264400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>263600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>256700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>264900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>305200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>303100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>323200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>331500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>341300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>339100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>475300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>444400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>461700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>483000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>532900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>640000</v>
+      </c>
+      <c r="E60" s="3">
         <v>683500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>617400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>638400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>640200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>519000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>558100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>602200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>603900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>610300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>626300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>581800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>752800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>722900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>662700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>695700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1023900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>394700</v>
+      </c>
+      <c r="E61" s="3">
         <v>318800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>347000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>344700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>353100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>399800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>373000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>376300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>377700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>417100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>362900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>364400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>405500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>372500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>311800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>370800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>360500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>371300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E62" s="3">
         <v>210000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>199300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>227400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>229200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>209700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>231100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>268000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>250700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>222300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>270200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>273400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>272700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>124500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>98000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>70800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1239900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1213000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1164400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1211200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1223100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1129200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1163000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1247100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1229900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1244000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1244100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1264800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1260700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1250500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1133400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1104700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1127700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1468000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,55 +4130,58 @@
         <v>257900</v>
       </c>
       <c r="E72" s="3">
+        <v>257900</v>
+      </c>
+      <c r="F72" s="3">
         <v>250900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>231300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>270400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>297900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>308400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>290100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>276700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>320500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>318300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>345100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>225600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>205000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>189800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>191900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>203900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>211200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>665100</v>
+      </c>
+      <c r="E76" s="3">
         <v>617900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>566100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>540800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>589800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>610400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>630100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>626700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>594500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>641400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>670800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>743900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>739600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>719400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>581100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>479000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>487100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>628100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10900</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F81" s="3">
         <v>21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-85500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-44900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
